--- a/Avance de proyecto 2/Plan de trabajo/Estimación de tiempos.xlsx
+++ b/Avance de proyecto 2/Plan de trabajo/Estimación de tiempos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>ESTIMACIÓN DE TIEMPOS</t>
   </si>
@@ -25,6 +25,18 @@
     <t>Sin realizar</t>
   </si>
   <si>
+    <t>Estudiantes</t>
+  </si>
+  <si>
+    <t>JuanJosé Olivera, Samuel Ivan, Francisco Castillo, Antonio Vázquez</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Aplicación web con base de datos</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
     <t>20 min</t>
   </si>
   <si>
+    <t>Se presentó el proyecto al socio formador</t>
+  </si>
+  <si>
     <t>Reunion Starbucks</t>
   </si>
   <si>
@@ -61,52 +76,122 @@
     <t>3 hrs</t>
   </si>
   <si>
+    <t>Hicimos una presentación de las posibles soluciones a las madres</t>
+  </si>
+  <si>
     <t>Presentación socio formador</t>
   </si>
   <si>
     <t>30 min</t>
   </si>
   <si>
+    <t>Le presentamos a los interesados en el sistema una solución</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reunion de equipo </t>
   </si>
   <si>
     <t>1 hr 30 min</t>
   </si>
   <si>
+    <t>Junta para analizar los resultados obtenidos de la entrevista y definir prioridades.</t>
+  </si>
+  <si>
     <t>Segunda presentación socio formador</t>
   </si>
   <si>
     <t>1 hr 30</t>
   </si>
   <si>
+    <t>Revisamos primera entrega, nos juntamos con el socio formador</t>
+  </si>
+  <si>
     <t>Junta semanal equipo</t>
   </si>
   <si>
     <t>50 min</t>
   </si>
   <si>
+    <t>Asistimos Juan José y Antonio Vázquez a ver en que consiste todo el proceso administrativo y financiero de donadores y servicios.</t>
+  </si>
+  <si>
     <t>Junta con socio formador</t>
   </si>
   <si>
-    <t>Segunda entrega</t>
+    <t>2 hr</t>
+  </si>
+  <si>
+    <t>Se obtuvieron los requisitos de información</t>
+  </si>
+  <si>
+    <t>2 hr 30 min</t>
+  </si>
+  <si>
+    <t>Validación requisitos funcionales</t>
+  </si>
+  <si>
+    <t>Creación de los prototipos (interfaces)</t>
+  </si>
+  <si>
+    <t>Validación de propuestas de interfaz</t>
+  </si>
+  <si>
+    <t>Junta en equipo</t>
+  </si>
+  <si>
+    <t>4 hr</t>
+  </si>
+  <si>
+    <t>Pasamos los prototipos a html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dddd d&quot; de &quot;mmmm, yyyy"/>
-    <numFmt numFmtId="165" formatCode="dddd d&quot; de &quot;mmmm,yyyy"/>
-    <numFmt numFmtId="166" formatCode="dddd d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dddd d&quot; de &quot;mmmm, yyyy"/>
+    <numFmt numFmtId="166" formatCode="dddd d&quot; de &quot;mmmm,yyyy"/>
+    <numFmt numFmtId="167" formatCode="dddd d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="170" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -134,13 +219,70 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -153,17 +295,106 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,9 +418,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.0"/>
-    <col customWidth="1" min="2" max="2" width="25.43"/>
+    <col customWidth="1" min="1" max="1" width="33.14"/>
+    <col customWidth="1" min="2" max="2" width="27.71"/>
     <col customWidth="1" min="5" max="5" width="14.43"/>
+    <col customWidth="1" min="6" max="6" width="109.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -206,130 +438,716 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="4" t="s">
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="C6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="D6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="18">
         <v>43483.0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="C7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="21">
         <v>43484.0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F8" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43485.0</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43485.0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43491.0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="21">
+        <v>43492.0</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F12" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="23">
+        <v>43499.0</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="23">
+        <v>43506.0</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="23">
+        <v>43513.0</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43497.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="7">
-        <v>43497.0</v>
-      </c>
+      <c r="D15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="23">
+        <v>43513.0</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="23">
+        <v>43517.0</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="19">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20">
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+    </row>
+    <row r="22">
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+    </row>
+    <row r="23">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26">
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="9"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="32"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="35"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="32"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="35"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="35"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="35"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="35"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="31"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="37"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="31"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="35"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="35"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="35"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="38"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="38"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="38"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="35"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="31"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="31"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="31"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="31"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="39"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="39"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="39"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="39"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="39"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="39"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="39"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="40"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>